--- a/NIR_LUC.xlsx
+++ b/NIR_LUC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>kg CO2/ha</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>net CO2 (kt)</t>
+  </si>
+  <si>
+    <t>Land --&gt; Cropland</t>
+  </si>
+  <si>
+    <t>Land --&gt; Grassland</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -113,6 +119,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,13 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S23"/>
+  <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N2" s="3"/>
@@ -481,6 +491,10 @@
         <f>SUM(D5:M5)</f>
         <v>60.721699999999998</v>
       </c>
+      <c r="O5">
+        <f>N5/20</f>
+        <v>3.0360849999999999</v>
+      </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -526,33 +540,43 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" ref="D7:L7" si="0">D6/D5</f>
         <v>3.8126843559137367</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
         <v>3.6843086652191901</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="0"/>
         <v>77.606049705301501</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="0"/>
         <v>17.480254652359829</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="0"/>
         <v>4.1967434162839394</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="0"/>
         <v>4.1479240858369275</v>
       </c>
       <c r="J7" s="1">
+        <f t="shared" si="0"/>
         <v>4.1559922682733106</v>
       </c>
       <c r="K7" s="1">
+        <f t="shared" si="0"/>
         <v>-19.107943744639599</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="0"/>
         <v>-1.4972266997313506</v>
       </c>
       <c r="M7" s="1">
+        <f>M6/M5</f>
         <v>-1.0894388855519401</v>
       </c>
       <c r="N7" s="8">
@@ -633,6 +657,10 @@
         <f>SUM(D10:M10)</f>
         <v>477.99246367299997</v>
       </c>
+      <c r="O10">
+        <f>N10/20</f>
+        <v>23.89962318365</v>
+      </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -678,33 +706,43 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" ref="D12:M12" si="1">D11/D10</f>
         <v>10.233645847145576</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="1"/>
         <v>2.551798036926614</v>
       </c>
       <c r="F12" s="1">
+        <f t="shared" si="1"/>
         <v>3.99165044684649</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="1"/>
         <v>6.3631841271456837</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="1"/>
         <v>2.5166432237806156</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="1"/>
         <v>23.865583903924655</v>
       </c>
       <c r="J12" s="1">
+        <f t="shared" si="1"/>
         <v>24.446991674235925</v>
       </c>
       <c r="K12" s="1">
+        <f t="shared" si="1"/>
         <v>2.058072642286886</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="1"/>
         <v>2.070726869100473</v>
       </c>
       <c r="M12" s="1">
+        <f t="shared" si="1"/>
         <v>13.732319375370885</v>
       </c>
       <c r="N12" s="8">
@@ -774,6 +812,10 @@
         <f>SUM(D15:M15)</f>
         <v>836.09457399999997</v>
       </c>
+      <c r="O15">
+        <f>N15/20</f>
+        <v>41.804728699999998</v>
+      </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -814,38 +856,48 @@
         <v>-1487.0586243333307</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" ref="D17:M17" si="2">D16/D15</f>
         <v>-4.9359540438146183</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="2"/>
         <v>-3.508523624671521</v>
       </c>
       <c r="F17" s="1">
+        <f t="shared" si="2"/>
         <v>-2.5093205824699831</v>
       </c>
       <c r="G17" s="1">
+        <f t="shared" si="2"/>
         <v>-2.5255668983898238</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="2"/>
         <v>-1.1544791119810225</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="2"/>
         <v>-9.7703812635153403E-2</v>
       </c>
       <c r="J17" s="1">
+        <f t="shared" si="2"/>
         <v>-0.64000567772651573</v>
       </c>
       <c r="K17" s="1">
+        <f t="shared" si="2"/>
         <v>-1.4265375752079641</v>
       </c>
       <c r="L17" s="1">
+        <f t="shared" si="2"/>
         <v>-1.6427376082477787</v>
       </c>
       <c r="M17" s="1">
+        <f t="shared" si="2"/>
         <v>0.54188972408393954</v>
       </c>
       <c r="N17" s="8">
@@ -853,7 +905,7 @@
         <v>-1.7785770540514605</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -862,12 +914,12 @@
         <v>-1778.5770540514604</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -905,8 +957,12 @@
         <f>SUM(D20:M20)</f>
         <v>691.36663999999996</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f>N20/20</f>
+        <v>34.568331999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -945,38 +1001,48 @@
         <v>-967.55010000008804</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" ref="D22:M22" si="3">D21/D20</f>
         <v>-2.1964678162854643</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" si="3"/>
         <v>-2.4020218784173957</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="3"/>
         <v>-2.1252633353915193</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="3"/>
         <v>-2.1220267892871796</v>
       </c>
       <c r="H22" s="1">
+        <f t="shared" si="3"/>
         <v>-1.4900969803586721</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="3"/>
         <v>8.0117342294584518E-2</v>
       </c>
       <c r="J22" s="1">
+        <f t="shared" si="3"/>
         <v>-1.3626680806512164</v>
       </c>
       <c r="K22" s="1">
+        <f t="shared" si="3"/>
         <v>-1.3196073900650012</v>
       </c>
       <c r="L22" s="1">
+        <f t="shared" si="3"/>
         <v>-1.2221401214393504</v>
       </c>
       <c r="M22" s="1">
+        <f t="shared" si="3"/>
         <v>-0.50735166687280642</v>
       </c>
       <c r="N22" s="8">
@@ -984,13 +1050,309 @@
         <v>-1.3994746694750677</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="N23" s="7">
         <f>N22*1000</f>
         <v>-1399.4746694750677</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <v>47.928742</v>
+      </c>
+      <c r="E26" s="9">
+        <v>48.019727000000003</v>
+      </c>
+      <c r="F26" s="9">
+        <v>49.146176000000004</v>
+      </c>
+      <c r="G26" s="9">
+        <v>46.03472</v>
+      </c>
+      <c r="H26" s="9">
+        <v>42.960531000000003</v>
+      </c>
+      <c r="I26" s="9">
+        <v>46.715876000000002</v>
+      </c>
+      <c r="J26" s="9">
+        <v>46.351773999999999</v>
+      </c>
+      <c r="K26" s="9">
+        <v>46.927233999999999</v>
+      </c>
+      <c r="L26" s="9">
+        <v>48.245604</v>
+      </c>
+      <c r="M26" s="9">
+        <v>48.141727000000003</v>
+      </c>
+      <c r="N26" s="2">
+        <f>SUM(D26:M26)</f>
+        <v>470.47211099999998</v>
+      </c>
+      <c r="O26">
+        <f>N26/20</f>
+        <v>23.523605549999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <v>83.283013000007557</v>
+      </c>
+      <c r="E27" s="9">
+        <v>55.892972666671746</v>
+      </c>
+      <c r="F27" s="9">
+        <v>423.16884133337186</v>
+      </c>
+      <c r="G27" s="9">
+        <v>114.72700433334376</v>
+      </c>
+      <c r="H27" s="9">
+        <v>43.235375333337267</v>
+      </c>
+      <c r="I27" s="9">
+        <v>33.859463000003075</v>
+      </c>
+      <c r="J27" s="9">
+        <v>30.781010333336141</v>
+      </c>
+      <c r="K27" s="9">
+        <v>234.13741633335462</v>
+      </c>
+      <c r="L27" s="9">
+        <v>55.836938666671749</v>
+      </c>
+      <c r="M27" s="9">
+        <v>-36.761189666669999</v>
+      </c>
+      <c r="N27" s="2">
+        <f>SUM(D27:M27)</f>
+        <v>1038.1608453334279</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28" si="4">D27/D26</f>
+        <v>1.7376423733384774</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28" si="5">E27/E26</f>
+        <v>1.1639585678334186</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28" si="6">F27/F26</f>
+        <v>8.6104123611442702</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28" si="7">G27/G26</f>
+        <v>2.4921842542616477</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28" si="8">H27/H26</f>
+        <v>1.006397600936014</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28" si="9">I27/I26</f>
+        <v>0.72479563478597886</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ref="J28" si="10">J27/J26</f>
+        <v>0.66407405104573003</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" ref="K28" si="11">K27/K26</f>
+        <v>4.9893717650896416</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28" si="12">L27/L26</f>
+        <v>1.1573476967284262</v>
+      </c>
+      <c r="M28" s="1">
+        <f>M27/M26</f>
+        <v>-0.76360346745911289</v>
+      </c>
+      <c r="N28" s="8">
+        <f>N27/N26</f>
+        <v>2.2066363150130019</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <f>N28*1000</f>
+        <v>2206.6363150130019</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9">
+        <v>102.97447842099999</v>
+      </c>
+      <c r="E31" s="9">
+        <v>110.42828160199998</v>
+      </c>
+      <c r="F31" s="9">
+        <v>109.82313038899999</v>
+      </c>
+      <c r="G31" s="9">
+        <v>118.10077243399999</v>
+      </c>
+      <c r="H31" s="9">
+        <v>120.76436455399998</v>
+      </c>
+      <c r="I31" s="9">
+        <v>122.00374506899999</v>
+      </c>
+      <c r="J31" s="9">
+        <v>126.22072038699999</v>
+      </c>
+      <c r="K31" s="9">
+        <v>135.53508772399996</v>
+      </c>
+      <c r="L31" s="9">
+        <v>135.97486676599999</v>
+      </c>
+      <c r="M31" s="9">
+        <v>140.02814475399998</v>
+      </c>
+      <c r="N31" s="2">
+        <f>SUM(D31:M31)</f>
+        <v>1221.8535920999998</v>
+      </c>
+      <c r="O31">
+        <f>N31/20</f>
+        <v>61.092679604999987</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9">
+        <v>363.47906489036637</v>
+      </c>
+      <c r="E32" s="9">
+        <v>47.66301475100434</v>
+      </c>
+      <c r="F32" s="9">
+        <v>116.7072112030106</v>
+      </c>
+      <c r="G32" s="9">
+        <v>241.05870957668853</v>
+      </c>
+      <c r="H32" s="9">
+        <v>39.330012249003552</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1124.2381371321023</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1285.3412273424506</v>
+      </c>
+      <c r="K32" s="9">
+        <v>135.52594427901235</v>
+      </c>
+      <c r="L32" s="9">
+        <v>192.66589101835086</v>
+      </c>
+      <c r="M32" s="9">
+        <v>814.84348933540741</v>
+      </c>
+      <c r="N32" s="2">
+        <f>SUM(D32:M32)</f>
+        <v>4360.8527017773977</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33" si="13">D32/D31</f>
+        <v>3.5297975815358988</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ref="E33" si="14">E32/E31</f>
+        <v>0.43161963637892115</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ref="F33" si="15">F32/F31</f>
+        <v>1.0626833417480162</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ref="G33" si="16">G32/G31</f>
+        <v>2.0411272899286321</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ref="H33" si="17">H32/H31</f>
+        <v>0.32567564441923652</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" ref="I33" si="18">I32/I31</f>
+        <v>9.2147838289413357</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" ref="J33" si="19">J32/J31</f>
+        <v>10.183282296294305</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" ref="K33" si="20">K32/K31</f>
+        <v>0.9999325381704387</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ref="L33" si="21">L32/L31</f>
+        <v>1.4169228152281319</v>
+      </c>
+      <c r="M33" s="1">
+        <f>M32/M31</f>
+        <v>5.8191407932092236</v>
+      </c>
+      <c r="N33" s="8">
+        <f>N32/N31</f>
+        <v>3.5690468399592787</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f>N33*1000</f>
+        <v>3569.0468399592787</v>
       </c>
     </row>
   </sheetData>
